--- a/Scan test/Answer Test 1.xlsx
+++ b/Scan test/Answer Test 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Desktop\Dev\Partage\PST\PST-Toeic\Scan test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF01DBF7-452E-47E3-A9F4-5EC20CF05568}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9236308D-A3DE-476B-8BE6-AEE98EF26E27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2815" uniqueCount="12">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -127,7 +127,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center"/>
@@ -138,19 +138,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Pourcentage" xfId="6" builtinId="5"/>
     <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Sans nom1" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -176,32 +179,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF3333"/>
-          <bgColor rgb="FFFF3333"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF3333"/>
-          <bgColor rgb="FFFF3333"/>
         </patternFill>
       </fill>
     </dxf>
@@ -515,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GS24"/>
+  <dimension ref="A1:GS27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5368,7 +5345,7 @@
       </c>
     </row>
     <row r="10" spans="1:201" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
@@ -5973,8 +5950,8 @@
       </c>
     </row>
     <row r="11" spans="1:201" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>6</v>
+      <c r="A11">
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -6578,8 +6555,8 @@
       </c>
     </row>
     <row r="12" spans="1:201" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>7</v>
+      <c r="A12">
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -7183,8 +7160,8 @@
       </c>
     </row>
     <row r="13" spans="1:201" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>8</v>
+      <c r="A13">
+        <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -7788,8 +7765,8 @@
       </c>
     </row>
     <row r="14" spans="1:201" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>9</v>
+      <c r="A14">
+        <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -8393,8 +8370,8 @@
       </c>
     </row>
     <row r="15" spans="1:201" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>10</v>
+      <c r="A15">
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -8998,8 +8975,8 @@
       </c>
     </row>
     <row r="16" spans="1:201" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>11</v>
+      <c r="A16">
+        <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -9611,7 +9588,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <f t="shared" ref="B18:AG18" si="0">C2=C10</f>
+        <f t="shared" ref="C18:AG18" si="0">C2=C10</f>
         <v>1</v>
       </c>
       <c r="D18" t="b">
@@ -15237,16 +15214,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="27" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <f>COUNTIF(B18:GS24,TRUE)/(200*7)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B18:GS24">
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>TRUE</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>TRUE</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
